--- a/IntelliTabler/timetable/static/excel_templates/combingTemplate.xlsx
+++ b/IntelliTabler/timetable/static/excel_templates/combingTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\intellitabler\IntelliTabler\timetable\static\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CA4656-7BA5-49AD-B9F4-B9465F98731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534BD20C-4EFA-4634-84A4-D2C9854831CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="590" xr2:uid="{61D4E36C-3248-40E5-9387-ABEFDABC86B6}"/>
   </bookViews>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9082282A-69E5-475D-B57C-5460C13C5493}">
   <dimension ref="A1:DI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
